--- a/eval_online_benchmarks/files/9ed02102-6b28-4946-8339-c028166e9512/1_BoomerangSales_gt1.xlsx
+++ b/eval_online_benchmarks/files/9ed02102-6b28-4946-8339-c028166e9512/1_BoomerangSales_gt1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers_v2\BoomerangSales\1_BoomerangSales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\playground\eval_online_benchmarks\files\9ed02102-6b28-4946-8339-c028166e9512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68EABA4-B2AF-4A47-916D-574A0A5525E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB275FFA-943A-4A8A-AB2F-913B7993DB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,19 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="160" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -143,13 +154,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m/d/yy\ hh:mm"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ hh:mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -157,13 +168,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -212,13 +223,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
@@ -228,12 +239,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -246,353 +254,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[1_BoomerangSales_gt1.xlsx]Sheet2!PivotTable15</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Sales frequency by website</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>汇总</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>amazon.com</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>coloradoboomerangs.com</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ebay.com</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gel-boomerang.com</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4676-475A-95D3-B8438F9CAD17}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="513137568"/>
-        <c:axId val="513147168"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="513137568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="513147168"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="513147168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="513137568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -957,7 +618,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable15" cacheId="160" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable15" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -1325,14 +986,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.84375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.61328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -1340,54 +1001,53 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7"/>
       <c r="B7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1399,12 +1059,12 @@
       <selection activeCell="G2" sqref="G2:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>42255.4257</v>
       </c>
@@ -1452,7 +1112,7 @@
         <v>604.83225000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>42349.9764</v>
       </c>
@@ -1477,7 +1137,7 @@
         <v>590.36749999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>42357.757599999997</v>
       </c>
@@ -1502,7 +1162,7 @@
         <v>73.575000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>42239.538200000003</v>
       </c>
@@ -1527,7 +1187,7 @@
         <v>1222.47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>42194.210400000004</v>
       </c>
@@ -1552,7 +1212,7 @@
         <v>579.78499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>42185.695099999997</v>
       </c>
@@ -1577,7 +1237,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>42186.552799999998</v>
       </c>
@@ -1602,7 +1262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>42218.171499999997</v>
       </c>
@@ -1627,7 +1287,7 @@
         <v>1278.75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>42324.511100000003</v>
       </c>
@@ -1652,7 +1312,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>41982.824999999997</v>
       </c>
@@ -1677,7 +1337,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>42346.349300000002</v>
       </c>
@@ -1702,7 +1362,7 @@
         <v>2011.2428000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>41986.6875</v>
       </c>
@@ -1727,7 +1387,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>42239.1299</v>
       </c>
@@ -1752,7 +1412,7 @@
         <v>162.95680000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>42328.459000000003</v>
       </c>
@@ -1777,7 +1437,7 @@
         <v>294.3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>42242.461799999997</v>
       </c>
@@ -1802,7 +1462,7 @@
         <v>64.598849999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>42350.598599999998</v>
       </c>
@@ -1827,7 +1487,7 @@
         <v>1286.3578</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>41986.527800000003</v>
       </c>
@@ -1852,7 +1512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>41985.690999999999</v>
       </c>
@@ -1877,7 +1537,7 @@
         <v>155.58500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>42213.6368</v>
       </c>
@@ -1902,7 +1562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>42241.6993</v>
       </c>
@@ -1927,7 +1587,7 @@
         <v>122.21759999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>42358.524299999997</v>
       </c>
@@ -1952,7 +1612,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>42245.587500000001</v>
       </c>
@@ -1977,7 +1637,7 @@
         <v>117.72</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>42063.489600000001</v>
       </c>
@@ -2002,7 +1662,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>42198.229200000002</v>
       </c>
@@ -2027,7 +1687,7 @@
         <v>565.07999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>42230.409699999997</v>
       </c>
@@ -2052,7 +1712,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="3">
         <v>42335.481899999999</v>
       </c>
@@ -2077,7 +1737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="3">
         <v>42311.521500000003</v>
       </c>
@@ -2102,7 +1762,7 @@
         <v>23.225000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="3">
         <v>42103.529900000001</v>
       </c>
@@ -2127,7 +1787,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="3">
         <v>42346.761100000003</v>
       </c>
@@ -2152,7 +1812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="3">
         <v>42054.9257</v>
       </c>
@@ -2177,7 +1837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="3">
         <v>42350.364600000001</v>
       </c>
@@ -2202,7 +1862,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="3">
         <v>41982.508300000001</v>
       </c>
@@ -2227,7 +1887,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="3">
         <v>41980.822899999999</v>
       </c>
@@ -2252,7 +1912,7 @@
         <v>220.95</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="3">
         <v>41979.740299999998</v>
       </c>
@@ -2277,7 +1937,7 @@
         <v>4.9050000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="3">
         <v>42158.162499999999</v>
       </c>
@@ -2316,13 +1976,13 @@
       <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.15234375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.765625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2330,7 +1990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -2338,7 +1998,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2346,7 +2006,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -2354,7 +2014,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -2362,7 +2022,7 @@
         <v>17.95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -2370,7 +2030,7 @@
         <v>26.95</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2378,7 +2038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2386,7 +2046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -2394,7 +2054,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2402,7 +2062,7 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -2410,7 +2070,7 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -2418,7 +2078,7 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2426,7 +2086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -2434,7 +2094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2442,7 +2102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -2450,7 +2110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2458,7 +2118,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2466,7 +2126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -2474,7 +2134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2482,7 +2142,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -2490,7 +2150,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2498,7 +2158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
